--- a/biology/Botanique/Johanniter/Johanniter.xlsx
+++ b/biology/Botanique/Johanniter/Johanniter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le johanniter est un cépage de cuve allemand de raisins blancs.
@@ -512,9 +524,11 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cépage est une obtention de Johannes Zimmermann dans l'institut Staatliches Weinbauinstitut Freiburg à Fribourg-en-Brisgau. L'origine génétique est vérifiée : c'est un croisement des cépages riesling × (seyve-villard 12.481 × (ruländer x gutedel)) réalisé en 1968. Le cépage est autorisé dans de nombreux Länder en Allemagne. Il est également autorisé en Belgique en AOC Côtes de Sambre et Meuse [1] et Haspengouw [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage est une obtention de Johannes Zimmermann dans l'institut Staatliches Weinbauinstitut Freiburg à Fribourg-en-Brisgau. L'origine génétique est vérifiée : c'est un croisement des cépages riesling × (seyve-villard 12.481 × (ruländer x gutedel)) réalisé en 1968. Le cépage est autorisé dans de nombreux Länder en Allemagne. Il est également autorisé en Belgique en AOC Côtes de Sambre et Meuse  et Haspengouw .
 Le johanniter est une hybride avec des parentages de Vitis labrusca, Vitis vinifera, Vitis rupestris, Vitis cinerea, Vitis berlandieri et Vitis aestivalis.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Feuilles adultes, à 5 lobes, un sinus pétiolaire étroit</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque tardive: 5 jours après le chasselas.
 </t>
@@ -605,7 +623,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont moyennes et les baies sont de taille moyenne à grande. Il craint les gelées printanières.
 </t>
@@ -636,7 +656,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  johanniter est connu sous le nom de FR 177-68.
 </t>
